--- a/biology/Botanique/Liste_de_plantes_endémiques_d'Algérie/Liste_de_plantes_endémiques_d'Algérie.xlsx
+++ b/biology/Botanique/Liste_de_plantes_endémiques_d'Algérie/Liste_de_plantes_endémiques_d'Algérie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_end%C3%A9miques_d%27Alg%C3%A9rie</t>
+          <t>Liste_de_plantes_endémiques_d'Algérie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une plante est dite endémique d'Algérie lorsqu'elle n'est présente à l'état indigène que dans ce pays. Ne sont listées ici que des endémiques algériennes strictes. Sont donc exclues des endémiques tuniso-algériennes, algéro-marocaines…
 Cette liste comprend XX espèces et XX sous-espèces.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_end%C3%A9miques_d%27Alg%C3%A9rie</t>
+          <t>Liste_de_plantes_endémiques_d'Algérie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,160 +525,162 @@
           <t>Espèces endémiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Abies numidica Carrière
-Orophyte des forêts humides de la Kabylie des Babors[1].
-Protégé
-En danger critique[2]
+Orophyte des forêts humides de la Kabylie des Babors.
+Protégé
+En danger critique
 Adenocarpus faurei Maire
-Très rare dans les forêts de Tiaret et du vallon de Sidi Khaled[3].
+Très rare dans les forêts de Tiaret et du vallon de Sidi Khaled.
 Protégé.
 Agropyropsis lolium (Balansa ex Coss. &amp; Durieu) A.Camus
-Assez commune dans les lieux humides des hauts plateaux ; rare en Petite Kabylie et dans l'Atlas saharien algérois et oranais[4].
+Assez commune dans les lieux humides des hauts plateaux ; rare en Petite Kabylie et dans l'Atlas saharien algérois et oranais.
 Protégé
 Allium trichocnemis J.Gay
-Rochers calcaires littoraux près de Béjaïa[5],[6]
+Rochers calcaires littoraux près de Béjaïa,
 Protégé
 Arabis doumetii Coss.
-Rare sur les rochers calcaires des Babor, du Djurdjura[7].
+Rare sur les rochers calcaires des Babor, du Djurdjura.
 Protégé
 Avena macrostachya Balansa ex Coss. &amp; Durieu
-Pâturages, rochers, forêts des montagnes du Djurdjura, de Belezma et de l'Aurès[8].
+Pâturages, rochers, forêts des montagnes du Djurdjura, de Belezma et de l'Aurès.
 Avena ventricosa Balansa ex Coss.
-Pâturages sablonneux près d'Aflou[9].
+Pâturages sablonneux près d'Aflou.
 Avenula breviaristata (Barratte ex Trab.) Holub
 = Avena breviaristata Barratte ex Trab.
-Ouled Sahari au-dessus du Zahrez Chergui[10].
-Protégé
-Bellevalia pomelii Maire[11]
-Très rare. Dans les broussailles et pâturages du Plateau des Gaminas dans le Sahel d'Oran[12].
+Ouled Sahari au-dessus du Zahrez Chergui.
+Protégé
+Bellevalia pomelii Maire
+Très rare. Dans les broussailles et pâturages du Plateau des Gaminas dans le Sahel d'Oran.
 Protégé
 Brassica spinescens Pomel
-Très rare sur les rochers  maritimes du Sahel d'Oran et des Îles Habibas[13].
-Protégé
-Bufonia chevallieri Batt[14].
-Très rare sur les rochers surplombant El Kantara[15].
-Protégé
-Calligonum calvescens Maire[16]
-Très rare, dans les dunes désertiques de Dras Souf, à l'extrémité Sud-Est du grand erg oriental[17].
+Très rare sur les rochers  maritimes du Sahel d'Oran et des Îles Habibas.
+Protégé
+Bufonia chevallieri Batt.
+Très rare sur les rochers surplombant El Kantara.
+Protégé
+Calligonum calvescens Maire
+Très rare, dans les dunes désertiques de Dras Souf, à l'extrémité Sud-Est du grand erg oriental.
 Protégé
 Coleostephus multicaulis (Desf.) Durieu
 = Chrysanthemum multicaule Desf. est donnée comme endémique de la région de Mostaganem.
-Parc national de Tlemcen[18].
-Cupressus dupreziana A.Camus[19]
+Parc national de Tlemcen.
+Cupressus dupreziana A.Camus
 Endémique du Tassili n'Ajjer
 Protégé
-En danger critique[20].
+En danger critique.
 Epimedium perralderianum Coss.
-Très rare dans les forêts humides de chênes à feuilles caduques de Petite Kabylie : Kefrida, Babors, Beni-Foughal[21].
-Protégé
-Festuca algeriensis Trab[22].
-Pâturages des hautes montagnes (Aurès, Mt de Daya)[23].
-Protégé
-Fumaria mairei Maire[24]
-Très rare dans les forêts de l'Akfadou et des gorges de Palestro[25].
+Très rare dans les forêts humides de chênes à feuilles caduques de Petite Kabylie : Kefrida, Babors, Beni-Foughal.
+Protégé
+Festuca algeriensis Trab.
+Pâturages des hautes montagnes (Aurès, Mt de Daya).
+Protégé
+Fumaria mairei Maire
+Très rare dans les forêts de l'Akfadou et des gorges de Palestro.
 Protégé
 Fumaria munbyi Boiss. &amp; Reut.
-Rare dans les rochers et les broussailles du littoral de Mostaganem à Nemours[25].
+Rare dans les rochers et les broussailles du littoral de Mostaganem à Nemours.
 Protégé
 Gagea mauritanica Durieu
-Broussailles et pâturages[26].
-Protégé
-Genista numidica Spach[27]
+Broussailles et pâturages.
+Protégé
+Genista numidica Spach
 Genista spinulosa Pomel
-Très rare à Dahra, Beni Zeroual, Medjahed[28].
+Très rare à Dahra, Beni Zeroual, Medjahed.
 Protégé
 Iberis peyerimhoffii Maire
-Très rare dans les rocailles de la zone montagneuse du Bou Maad dans le Tell algérois[29].
+Très rare dans les rocailles de la zone montagneuse du Bou Maad dans le Tell algérois.
 Protégé
 Lepidium rigidum Pomel
-Assez commune dans les forêts et les broussailles dans le Haut Tell et les Hauts Plateaux constantinois, l'Aurès, les Monts du Hodna jusqu'à l'Ouarsenis[30].
+Assez commune dans les forêts et les broussailles dans le Haut Tell et les Hauts Plateaux constantinois, l'Aurès, les Monts du Hodna jusqu'à l'Ouarsenis.
 Moehringia stellarioides Coss.
-Rare, dans les forêts de chênes à feuilles caduques de Petite Kabylie et de Collo[31].
+Rare, dans les forêts de chênes à feuilles caduques de Petite Kabylie et de Collo.
 Protégé
 Ononis avellana Pomel
-Rare, dans les champs argileux de la région de Dahra[32].
+Rare, dans les champs argileux de la région de Dahra.
 Protégé
 Ononis crinita Pomel
-Dans les terrains argileux de la région de Dahra[32].
+Dans les terrains argileux de la région de Dahra.
 Protégé
 Ononis incisa Batt.
-Assez rare à très rare dans les steppes des hauts plateaux[33].
+Assez rare à très rare dans les steppes des hauts plateaux.
 Ononis megalostachys Munby
-Très rare dans les plaines littorales de l'Oranie : Sig, Boutlelis[34].
+Très rare dans les plaines littorales de l'Oranie : Sig, Boutlelis.
 Protégé
 Otocarpus virgatus Durieu
-Très rare dans les pâturages argileux du sous-secteur des Hauts-Plateaux algérois et oranais[35].
+Très rare dans les pâturages argileux du sous-secteur des Hauts-Plateaux algérois et oranais.
 Protégé
 Potamogeton hoggarensis Dandy
 Endémique du Hoggar.
 Protégé
-Romulea battandieri Bég[36].
-Dans les pâturages des montagnes du Djurdjura, dans les « Agoumis »[37].
-Protégé
-Romulea vaillantii Quézel[38]
-Très rare dans les pelouses du Djebel Chélia[39].
+Romulea battandieri Bég.
+Dans les pâturages des montagnes du Djurdjura, dans les « Agoumis ».
+Protégé
+Romulea vaillantii Quézel
+Très rare dans les pelouses du Djebel Chélia.
 Protégé
 Rostraria balansae (Coss. &amp; Durieu) Holub
-= Koeleria balansae Coss. &amp; Durieu[40]
-communes sur les pelouses maritimes ou submaritimes à l'est et l'ouest d'Oran[41].
+= Koeleria balansae Coss. &amp; Durieu
+communes sur les pelouses maritimes ou submaritimes à l'est et l'ouest d'Oran.
 Protégé
 Rumex algeriensis Barratte &amp; Murb.
 Très rare dans les marais de la Mitidja, à l'Est d'Alger et dans la plaine de Bône.
 Protégé
-En danger[42].
+En danger.
 Rupicapnos muricaria Pomel
-Très rare, dans les falaises calcaires de M'Zab[43].
+Très rare, dans les falaises calcaires de M'Zab.
 Protégé
 Saxifraga numidica Maire
-Très rare sur les rochers calcaires de Babor et Tababort au-dessus de 1 600 m[44].
+Très rare sur les rochers calcaires de Babor et Tababort au-dessus de 1 600 m.
 Protégé
 Sedum multiceps Coss. &amp; Durieu
-Rare sur les rochers surtout calcaires de petite Kabylie et autour de Constantine[45].
+Rare sur les rochers surtout calcaires de petite Kabylie et autour de Constantine.
 Protégé
 Silene aristidis Pomel
-Rare, dans l'Atlas Tellien[46].
+Rare, dans l'Atlas Tellien.
 Silene choulettii Coss.
-Assez commun sur les rochers siliceux de Kroumirie, de Numidie et dans le tell constantinois[47].
-Silene cirtensis Pomel[48]
-Très rare dans les rocailles du tell constantinois[49].
-Protégé
-Silene claryi Batt[50].
-Rare, dans les steppes et rocailles arides des hauts-plateaux algérois et oranais et de l'Atlas saharien[51]
-Silene ghiarensis Batt[52].
-Rare, dans les champs et pâturages des plaines littorales oranaises[53].
-Protégé
-Silene glaberrima Faure &amp; Maire[54]
-Très rare, dans les pâturages rocailleux près de l'Oued Imbert[55].
+Assez commun sur les rochers siliceux de Kroumirie, de Numidie et dans le tell constantinois.
+Silene cirtensis Pomel
+Très rare dans les rocailles du tell constantinois.
+Protégé
+Silene claryi Batt.
+Rare, dans les steppes et rocailles arides des hauts-plateaux algérois et oranais et de l'Atlas saharien
+Silene ghiarensis Batt.
+Rare, dans les champs et pâturages des plaines littorales oranaises.
+Protégé
+Silene glaberrima Faure &amp; Maire
+Très rare, dans les pâturages rocailleux près de l'Oued Imbert.
 Protégé
 Silene kremeri Soy.-Will. &amp; Godr.
-Assez commune dans les broussailles et champs cultivés dans le tell et les hauts plateaux constantinois[56].
+Assez commune dans les broussailles et champs cultivés dans le tell et les hauts plateaux constantinois.
 Silene pseudovestita Batt. :
-Très rare, dans les forêts claires de l'Ain Lellout[57].
-Protégé
-Silene reverchonii Batt[58].
+Très rare, dans les forêts claires de l'Ain Lellout.
+Protégé
+Silene reverchonii Batt.
 Très rare, dans le massif des Babors.
 Protégé
-Disparu ?[59]
-Silene sessionis Batt[60]
-Très rare, en Petite Kabylie, dans le Cap Bouak et le Cap Noir, près de Béjaïa[61].
+Disparu ?
+Silene sessionis Batt
+Très rare, en Petite Kabylie, dans le Cap Bouak et le Cap Noir, près de Béjaïa.
 Protégé
 Sorghum annuum (Trab.) Maire
-Plaine de l'Oued el Kebir entre Collo et Djidjelli[62].
+Plaine de l'Oued el Kebir entre Collo et Djidjelli.
 Protégé
 Spergularia pycnorrhiza Foucaud ex Batt.
-Plante rupicole maritime, très rare, dans Les Habibas, à Ain Franin[63].
+Plante rupicole maritime, très rare, dans Les Habibas, à Ain Franin.
 Protégé
 Stipagrostis brachyathera (Coss. &amp; Durieu) De Winter
-= Aristida brachypthera (Coss. &amp; Durieu) Coss., endémique saharien[64].
+= Aristida brachypthera (Coss. &amp; Durieu) Coss., endémique saharien.
 Protégé
 Trisetaria nitida (Desf.) Maire
-Pâturages de montagne, sur sable près de Mascara, Tiaret, Ouizert[65].
+Pâturages de montagne, sur sable près de Mascara, Tiaret, Ouizert.
 Protégé
 Vulpia obtusa Trab.
-Bords du lac Oubeïra (El Kala)[66].
+Bords du lac Oubeïra (El Kala).
 Protégé
 </t>
         </is>
@@ -678,7 +692,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_end%C3%A9miques_d%27Alg%C3%A9rie</t>
+          <t>Liste_de_plantes_endémiques_d'Algérie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -696,25 +710,27 @@
           <t>Sous-espèces endémiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Corynephorus articulatus subsp. oranensis (Murb.) Maire &amp; Weiller
-Sur les sables maritimes de l'Oranie[67]
-Erysimum cheiri subsp. inexpectans Véla, Ouarmim &amp; Dubset[68]
+Sur les sables maritimes de l'Oranie
+Erysimum cheiri subsp. inexpectans Véla, Ouarmim &amp; Dubset
 Genista numidica subsp. filiramea (Pomel) Batt.
-Dans le Djurdjura[69].
+Dans le Djurdjura.
 Genista numidica subsp. ischnoclada (Pomel) Batt.
-Rare, dans la commune de l'Aïn Tédelès[69].
+Rare, dans la commune de l'Aïn Tédelès.
 Genista numidica Spach subsp. numidica
-Commune en Petite Kabylie et en Numidie[69].
+Commune en Petite Kabylie et en Numidie.
 Genista numidica subsp. sarotes (Pomel) Batt.
-Dans le Mont Zaccar[69].
+Dans le Mont Zaccar.
 Genista triacanthos subsp. vepres (Pomel) P.E.Gibbs, anciennement appelé Genista vepres
-Dans les forêts siliceuses de Kabylie et de Kroumirie[28].
-Najas marina subsp. arsenariensis (Maire) Triest[70]
+Dans les forêts siliceuses de Kabylie et de Kroumirie.
+Najas marina subsp. arsenariensis (Maire) Triest
 Protégé.
 En danger critique d'extinction.
-Spergularia microsperma subsp. fontenellei (Maire) Greuter &amp; Burdet[71].</t>
+Spergularia microsperma subsp. fontenellei (Maire) Greuter &amp; Burdet.</t>
         </is>
       </c>
     </row>
@@ -724,7 +740,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_end%C3%A9miques_d%27Alg%C3%A9rie</t>
+          <t>Liste_de_plantes_endémiques_d'Algérie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -742,44 +758,46 @@
           <t>Plantes n'étant plus considérées comme endémiques algériennes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Alyssum macrocalyx Coss. &amp; Durieu, présent au Maroc également[72].
-Brassica dimorphaCoss. &amp; Durieu, renommé Guenthera dimorpha (Coss. &amp; Durieu) Gómez-Campo, présent en Tunisie également[73].
-Brassica maurorum Durieu, présent au Maroc également[74].
-Bromus garamas Maire, rejeté[75] au profit de Bromus pectinatus Thunb., présent également au Soudan[76]
-Calligonum azel Maire, présent dans toute l'Afrique du Nord[77].
-Crambe kralikii Coss., présent au Maroc également[78].
-Cyclamen africanum Boiss. &amp; Reut., présent également en Tunisie et au Maroc[79].
-Cynosurus elegans subsp. aurasiacus (Murb.) Maire[80]
-Gagea algeriensis Chab[81]
-Gagea granatelli subsp. chaberti (A.Terracc.) A.Terracc. (1905) = Gagea chabertii A.Terracc[82]
-Gagea granatelli (Parl.) Parl. subsp. granatelli[83]
-Genista erioclada Spach[84]
-Genista ulicina Spach[85]
-Henophyton deserti (Coss. &amp; Durieu) Coss. &amp; Durieu = Oudneya africana R.Br[86]
-Herniaria mauritanica Murb[87]
-Kremeriella cordylocarpus (Coss. &amp; Durieu) Maire[88]
-Malcolmia arenaria (Desf.) DC[89].
-Malcolmia malcolmioides (Coss. &amp; Durieu) Greuter &amp; Burdet, anciennement appelé Maresia malcolmioides (Coss. &amp; Durieu) Pomel[90].
-Mesembryanthemum gaussenii Leredde[91]
-Mesembryanthemum theurkauffii (Maire) Maire[92]
-Moricandia foleyi Batt[93].
-Ononis antennata Pomel[94]
-Ononis rosea Durieu, présent également en Tunisie[95]
-Papaver malviflorum Doumergue[96]
-Reseda duriaeana Müll.Arg[97].
-Silene arenarioides Desf[98]
-Silene atlantica Coss. &amp; Durieu[99]
-Silene cinerea Desf[100]
-Silene kilianii Maire[101]
-Silene obtusifolia Willd[102]
-Silene oropediorum Coss[103]
-Silene reticulata Desf[104]
-Silene rosulata Soy.-Will. &amp; Godr[105]
-Silene velutinoides Pomel[106]
-Spergularia munbyana Pomel[107]
-Spergularia tenuifolia Pomel[108]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Alyssum macrocalyx Coss. &amp; Durieu, présent au Maroc également.
+Brassica dimorphaCoss. &amp; Durieu, renommé Guenthera dimorpha (Coss. &amp; Durieu) Gómez-Campo, présent en Tunisie également.
+Brassica maurorum Durieu, présent au Maroc également.
+Bromus garamas Maire, rejeté au profit de Bromus pectinatus Thunb., présent également au Soudan
+Calligonum azel Maire, présent dans toute l'Afrique du Nord.
+Crambe kralikii Coss., présent au Maroc également.
+Cyclamen africanum Boiss. &amp; Reut., présent également en Tunisie et au Maroc.
+Cynosurus elegans subsp. aurasiacus (Murb.) Maire
+Gagea algeriensis Chab
+Gagea granatelli subsp. chaberti (A.Terracc.) A.Terracc. (1905) = Gagea chabertii A.Terracc
+Gagea granatelli (Parl.) Parl. subsp. granatelli
+Genista erioclada Spach
+Genista ulicina Spach
+Henophyton deserti (Coss. &amp; Durieu) Coss. &amp; Durieu = Oudneya africana R.Br
+Herniaria mauritanica Murb
+Kremeriella cordylocarpus (Coss. &amp; Durieu) Maire
+Malcolmia arenaria (Desf.) DC.
+Malcolmia malcolmioides (Coss. &amp; Durieu) Greuter &amp; Burdet, anciennement appelé Maresia malcolmioides (Coss. &amp; Durieu) Pomel.
+Mesembryanthemum gaussenii Leredde
+Mesembryanthemum theurkauffii (Maire) Maire
+Moricandia foleyi Batt.
+Ononis antennata Pomel
+Ononis rosea Durieu, présent également en Tunisie
+Papaver malviflorum Doumergue
+Reseda duriaeana Müll.Arg.
+Silene arenarioides Desf
+Silene atlantica Coss. &amp; Durieu
+Silene cinerea Desf
+Silene kilianii Maire
+Silene obtusifolia Willd
+Silene oropediorum Coss
+Silene reticulata Desf
+Silene rosulata Soy.-Will. &amp; Godr
+Silene velutinoides Pomel
+Spergularia munbyana Pomel
+Spergularia tenuifolia Pomel</t>
         </is>
       </c>
     </row>
